--- a/data/Game/Floor.xlsx
+++ b/data/Game/Floor.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\_Lang_Vietnamese\Lang\VN\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A136287A-763C-42BC-BEF7-B6F2E2B2DCC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A7C504-08A8-4321-8708-DE7BD9A7190F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="3645" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Floor" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Floor!$A$2:$H$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Floor!$A$2:$H$2</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -52,760 +52,760 @@
     <t>0</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>solid soil floor</t>
+  </si>
+  <si>
+    <t>固い土の床</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Editor Floor(Interior)</t>
+  </si>
+  <si>
+    <t>特殊フロア(室内)</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Editor Floor(Exterior)</t>
+  </si>
+  <si>
+    <t>特殊フロア(野外)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>畑</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>plank floor</t>
+  </si>
+  <si>
+    <t>板の床</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>stone floor</t>
+  </si>
+  <si>
+    <t>石の床</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>carpet</t>
+  </si>
+  <si>
+    <t>カーペット</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>support floor</t>
+  </si>
+  <si>
+    <t>足場の床</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>glass floor</t>
+  </si>
+  <si>
+    <t>硝子の床</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>mirror floor</t>
+  </si>
+  <si>
+    <t>鏡の床</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>rusty metal floor</t>
+  </si>
+  <si>
+    <t>錆びた金属の床</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>metal floor</t>
+  </si>
+  <si>
+    <t>金属の床</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>magma</t>
+  </si>
+  <si>
+    <t>マグマの床</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>log floor</t>
+  </si>
+  <si>
+    <t>丸太の床</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>crystal floor</t>
+  </si>
+  <si>
+    <t>結晶の床</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>tile floor</t>
+  </si>
+  <si>
+    <t>タイルの床</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>brick floor</t>
+  </si>
+  <si>
+    <t>煉瓦の床</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>sand floor</t>
+  </si>
+  <si>
+    <t>砂床</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>砂の床</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>lawn floor</t>
+  </si>
+  <si>
+    <t>芝生の床</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>thick grass floor</t>
+  </si>
+  <si>
+    <t>茂みの床</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>straw floor</t>
+  </si>
+  <si>
+    <t>藁の床</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>smooth soil floor</t>
+  </si>
+  <si>
+    <t>滑らかな土の床</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>ice floor</t>
+  </si>
+  <si>
+    <t>氷の床</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>snow floor</t>
+  </si>
+  <si>
+    <t>雪の床</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>soil floor</t>
+  </si>
+  <si>
+    <t>土の床</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>wooden floor</t>
+  </si>
+  <si>
+    <t>大木の床</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>deep grass floor</t>
+  </si>
+  <si>
+    <t>深い茂みの床</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>shallow water</t>
+  </si>
+  <si>
+    <t>浅い水</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>いかだの床</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>ash floor</t>
+  </si>
+  <si>
+    <t>焼け焦げた床</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>modern floor</t>
+  </si>
+  <si>
+    <t>モダンな床</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>pedestal</t>
+  </si>
+  <si>
+    <t>ペデスタル</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>deep water</t>
+  </si>
+  <si>
+    <t>深い水</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>very shallow water</t>
+  </si>
+  <si>
+    <t>とても浅い水</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>grass floor</t>
+  </si>
+  <si>
+    <t>草の床</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>quality plank floor</t>
+  </si>
+  <si>
+    <t>上質板の床</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Editor Floor(Transparent)</t>
+  </si>
+  <si>
+    <t>特殊フロア(透明)</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>modern carpet</t>
+  </si>
+  <si>
+    <t>モダンなカーペット</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>plank pattern floor</t>
+  </si>
+  <si>
+    <t>木模様の床</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Editor Floor(Sky)</t>
+  </si>
+  <si>
+    <t>特殊フロア(空)</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Tatami</t>
+  </si>
+  <si>
+    <t>畳</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>wooden grille floor</t>
+  </si>
+  <si>
+    <t>格子板の床</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>metal grille floor</t>
+  </si>
+  <si>
+    <t>金属格子の床</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>cave floor</t>
+  </si>
+  <si>
+    <t>洞窟の床</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>barren soil floor</t>
+  </si>
+  <si>
+    <t>荒地の床</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>bridge</t>
+  </si>
+  <si>
+    <t>橋</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>bush floor</t>
+  </si>
+  <si>
+    <t>草むらの床</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>red algae floor</t>
+  </si>
+  <si>
+    <t>紅藻の床</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>seabed floor</t>
+  </si>
+  <si>
+    <t>海底の床</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>chocolate floor</t>
+  </si>
+  <si>
+    <t>チョコレートの床</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>biscuit floor</t>
+  </si>
+  <si>
+    <t>ビスケットの床</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>mushroom floor</t>
+  </si>
+  <si>
+    <t>キノコの床</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>Alpha 11.1</t>
+  </si>
+  <si>
+    <t>Alpha 19.1</t>
+  </si>
+  <si>
+    <t>Alpha 20.66</t>
+  </si>
+  <si>
+    <t>Alpha 20.7</t>
+  </si>
+  <si>
+    <t>Alpha 12.1</t>
+  </si>
+  <si>
+    <t>Alpha 14.1</t>
+  </si>
+  <si>
+    <t>Alpha 20.27</t>
+  </si>
+  <si>
+    <t>Alpha 20.40</t>
+  </si>
+  <si>
+    <t>Alpha 20.51</t>
+  </si>
+  <si>
+    <t>Alpha 20.69</t>
+  </si>
+  <si>
+    <t>Alpha 20.70</t>
+  </si>
+  <si>
+    <t>Alpha 21.0</t>
+  </si>
+  <si>
+    <t>Beta 22.13</t>
+  </si>
+  <si>
+    <t>Beta 22.22</t>
+  </si>
+  <si>
+    <t>Beta 22.57</t>
+  </si>
+  <si>
+    <t>EA 23.143</t>
+  </si>
+  <si>
+    <t>EA 23.145</t>
+  </si>
+  <si>
+    <t>EA 23.168</t>
+  </si>
+  <si>
+    <t>EA 23.169</t>
+  </si>
+  <si>
     <t>EA 23.188 Patch 2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>solid soil floor</t>
-  </si>
-  <si>
-    <t>固い土の床</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Editor Floor(Interior)</t>
-  </si>
-  <si>
-    <t>特殊フロア(室内)</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Editor Floor(Exterior)</t>
-  </si>
-  <si>
-    <t>特殊フロア(野外)</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>field</t>
-  </si>
-  <si>
-    <t>畑</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>plank floor</t>
-  </si>
-  <si>
-    <t>板の床</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>stone floor</t>
-  </si>
-  <si>
-    <t>石の床</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>carpet</t>
-  </si>
-  <si>
-    <t>カーペット</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>support floor</t>
-  </si>
-  <si>
-    <t>足場の床</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>glass floor</t>
-  </si>
-  <si>
-    <t>硝子の床</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>mirror floor</t>
-  </si>
-  <si>
-    <t>鏡の床</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>rusty metal floor</t>
-  </si>
-  <si>
-    <t>錆びた金属の床</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>metal floor</t>
-  </si>
-  <si>
-    <t>金属の床</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>magma</t>
-  </si>
-  <si>
-    <t>マグマの床</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>log floor</t>
-  </si>
-  <si>
-    <t>丸太の床</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>crystal floor</t>
-  </si>
-  <si>
-    <t>結晶の床</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>tile floor</t>
-  </si>
-  <si>
-    <t>タイルの床</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>brick floor</t>
-  </si>
-  <si>
-    <t>煉瓦の床</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>sand floor</t>
-  </si>
-  <si>
-    <t>砂床</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>砂の床</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>lawn floor</t>
-  </si>
-  <si>
-    <t>芝生の床</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>thick grass floor</t>
-  </si>
-  <si>
-    <t>茂みの床</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>straw floor</t>
-  </si>
-  <si>
-    <t>藁の床</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>smooth soil floor</t>
-  </si>
-  <si>
-    <t>滑らかな土の床</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>ice floor</t>
-  </si>
-  <si>
-    <t>氷の床</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>snow floor</t>
-  </si>
-  <si>
-    <t>雪の床</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>soil floor</t>
-  </si>
-  <si>
-    <t>土の床</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>wooden floor</t>
-  </si>
-  <si>
-    <t>大木の床</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>deep grass floor</t>
-  </si>
-  <si>
-    <t>深い茂みの床</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>水</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>shallow water</t>
-  </si>
-  <si>
-    <t>浅い水</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>いかだの床</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>ash floor</t>
-  </si>
-  <si>
-    <t>焼け焦げた床</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>modern floor</t>
-  </si>
-  <si>
-    <t>モダンな床</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>pedestal</t>
-  </si>
-  <si>
-    <t>ペデスタル</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>deep water</t>
-  </si>
-  <si>
-    <t>深い水</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>very shallow water</t>
-  </si>
-  <si>
-    <t>とても浅い水</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>grass floor</t>
-  </si>
-  <si>
-    <t>草の床</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>quality plank floor</t>
-  </si>
-  <si>
-    <t>上質板の床</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>Editor Floor(Transparent)</t>
-  </si>
-  <si>
-    <t>特殊フロア(透明)</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>modern carpet</t>
-  </si>
-  <si>
-    <t>モダンなカーペット</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>plank pattern floor</t>
-  </si>
-  <si>
-    <t>木模様の床</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>Editor Floor(Sky)</t>
-  </si>
-  <si>
-    <t>特殊フロア(空)</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Tatami</t>
-  </si>
-  <si>
-    <t>畳</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>wooden grille floor</t>
-  </si>
-  <si>
-    <t>格子板の床</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>metal grille floor</t>
-  </si>
-  <si>
-    <t>金属格子の床</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>cave floor</t>
-  </si>
-  <si>
-    <t>洞窟の床</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>barren soil floor</t>
-  </si>
-  <si>
-    <t>荒地の床</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>bridge</t>
-  </si>
-  <si>
-    <t>橋</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>bush floor</t>
-  </si>
-  <si>
-    <t>草むらの床</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>red algae floor</t>
-  </si>
-  <si>
-    <t>紅藻の床</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>seabed floor</t>
-  </si>
-  <si>
-    <t>海底の床</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>chocolate floor</t>
-  </si>
-  <si>
-    <t>チョコレートの床</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>biscuit floor</t>
-  </si>
-  <si>
-    <t>ビスケットの床</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>mushroom floor</t>
-  </si>
-  <si>
-    <t>キノコの床</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>Alpha 11.1</t>
-  </si>
-  <si>
-    <t>Alpha 19.1</t>
-  </si>
-  <si>
-    <t>Alpha 20.66</t>
-  </si>
-  <si>
-    <t>Alpha 20.7</t>
-  </si>
-  <si>
-    <t>Alpha 12.1</t>
-  </si>
-  <si>
-    <t>Alpha 14.1</t>
-  </si>
-  <si>
-    <t>Alpha 20.27</t>
-  </si>
-  <si>
-    <t>Alpha 20.40</t>
-  </si>
-  <si>
-    <t>Alpha 20.51</t>
-  </si>
-  <si>
-    <t>Alpha 20.69</t>
-  </si>
-  <si>
-    <t>Alpha 20.70</t>
-  </si>
-  <si>
-    <t>Alpha 21.0</t>
-  </si>
-  <si>
-    <t>Beta 22.13</t>
-  </si>
-  <si>
-    <t>Beta 22.22</t>
-  </si>
-  <si>
-    <t>Beta 22.57</t>
-  </si>
-  <si>
-    <t>EA 23.143</t>
-  </si>
-  <si>
-    <t>EA 23.145</t>
-  </si>
-  <si>
-    <t>EA 23.168</t>
-  </si>
-  <si>
-    <t>EA 23.169</t>
   </si>
   <si>
     <t>sàn đất cứng</t>
@@ -1320,15 +1320,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C130" sqref="C130"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1354,2158 +1354,2158 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C4" t="s">
         <v>261</v>
       </c>
       <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C5" t="s">
         <v>262</v>
       </c>
       <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
       <c r="B6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C6" t="s">
         <v>263</v>
       </c>
       <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
       <c r="B7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C7" t="s">
         <v>264</v>
       </c>
       <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
       <c r="B8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C8" t="s">
         <v>265</v>
       </c>
       <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
       <c r="B9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C9" t="s">
         <v>266</v>
       </c>
       <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
       <c r="B10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C10" t="s">
         <v>267</v>
       </c>
       <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
         <v>29</v>
       </c>
-      <c r="E10" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
       <c r="B11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C11" t="s">
         <v>267</v>
       </c>
       <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
         <v>29</v>
       </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" t="s">
         <v>267</v>
       </c>
       <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" t="s">
         <v>268</v>
       </c>
       <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
         <v>34</v>
       </c>
-      <c r="E13" t="s">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>36</v>
-      </c>
       <c r="B14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C14" t="s">
         <v>269</v>
       </c>
       <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
       <c r="B15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C15" t="s">
         <v>266</v>
       </c>
       <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" t="s">
         <v>26</v>
       </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C16" t="s">
         <v>270</v>
       </c>
       <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
         <v>41</v>
       </c>
-      <c r="E16" t="s">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>43</v>
-      </c>
       <c r="B17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C17" t="s">
         <v>266</v>
       </c>
       <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
         <v>26</v>
       </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C18" t="s">
         <v>266</v>
       </c>
       <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
         <v>26</v>
       </c>
-      <c r="E18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C19" t="s">
         <v>266</v>
       </c>
       <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
         <v>26</v>
       </c>
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C20" t="s">
         <v>271</v>
       </c>
       <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
         <v>47</v>
       </c>
-      <c r="E20" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>49</v>
-      </c>
       <c r="B21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C21" t="s">
         <v>272</v>
       </c>
       <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="E21" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
       <c r="B22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C22" t="s">
         <v>266</v>
       </c>
       <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
         <v>26</v>
       </c>
-      <c r="E22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C23" t="s">
         <v>273</v>
       </c>
       <c r="D23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" t="s">
         <v>54</v>
       </c>
-      <c r="E23" t="s">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>56</v>
-      </c>
       <c r="B24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C24" t="s">
         <v>274</v>
       </c>
       <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" t="s">
         <v>57</v>
       </c>
-      <c r="E24" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>59</v>
-      </c>
       <c r="B25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C25" t="s">
         <v>275</v>
       </c>
       <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" t="s">
         <v>60</v>
       </c>
-      <c r="E25" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>62</v>
-      </c>
       <c r="B26" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C26" t="s">
         <v>276</v>
       </c>
       <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" t="s">
         <v>63</v>
       </c>
-      <c r="E26" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>65</v>
-      </c>
       <c r="B27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C27" t="s">
         <v>267</v>
       </c>
       <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
         <v>29</v>
       </c>
-      <c r="E27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C28" t="s">
         <v>267</v>
       </c>
       <c r="D28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" t="s">
         <v>29</v>
       </c>
-      <c r="E28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C29" t="s">
         <v>267</v>
       </c>
       <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
         <v>29</v>
       </c>
-      <c r="E29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C30" t="s">
         <v>277</v>
       </c>
       <c r="D30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" t="s">
         <v>69</v>
       </c>
-      <c r="E30" t="s">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>71</v>
-      </c>
       <c r="B31" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C31" t="s">
         <v>266</v>
       </c>
       <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" t="s">
         <v>26</v>
       </c>
-      <c r="E31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C32" t="s">
         <v>266</v>
       </c>
       <c r="D32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" t="s">
         <v>26</v>
       </c>
-      <c r="E32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C33" t="s">
         <v>278</v>
       </c>
       <c r="D33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" t="s">
         <v>74</v>
       </c>
-      <c r="E33" t="s">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>76</v>
-      </c>
       <c r="B34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C34" t="s">
         <v>265</v>
       </c>
       <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s">
         <v>23</v>
       </c>
-      <c r="E34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C35" t="s">
         <v>266</v>
       </c>
       <c r="D35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" t="s">
         <v>26</v>
       </c>
-      <c r="E35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C36" t="s">
         <v>278</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>80</v>
-      </c>
       <c r="B37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C37" t="s">
         <v>279</v>
       </c>
       <c r="D37" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" t="s">
         <v>81</v>
       </c>
-      <c r="E37" t="s">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>83</v>
-      </c>
       <c r="B38" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C38" t="s">
         <v>280</v>
       </c>
       <c r="D38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" t="s">
         <v>84</v>
       </c>
-      <c r="E38" t="s">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>86</v>
-      </c>
       <c r="B39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C39" t="s">
         <v>281</v>
       </c>
       <c r="D39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" t="s">
         <v>87</v>
       </c>
-      <c r="E39" t="s">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>89</v>
-      </c>
       <c r="B40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C40" t="s">
         <v>282</v>
       </c>
       <c r="D40" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" t="s">
         <v>90</v>
       </c>
-      <c r="E40" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>92</v>
-      </c>
       <c r="B41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C41" t="s">
         <v>283</v>
       </c>
       <c r="D41" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" t="s">
         <v>93</v>
       </c>
-      <c r="E41" t="s">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>95</v>
-      </c>
       <c r="B42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C42" t="s">
         <v>284</v>
       </c>
       <c r="D42" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" t="s">
         <v>96</v>
       </c>
-      <c r="E42" t="s">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>98</v>
-      </c>
       <c r="B43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C43" t="s">
         <v>285</v>
       </c>
       <c r="D43" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" t="s">
         <v>99</v>
       </c>
-      <c r="E43" t="s">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>101</v>
-      </c>
       <c r="B44" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C44" t="s">
         <v>286</v>
       </c>
       <c r="D44" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" t="s">
         <v>102</v>
       </c>
-      <c r="E44" t="s">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>104</v>
-      </c>
       <c r="B45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C45" t="s">
         <v>287</v>
       </c>
       <c r="D45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" t="s">
         <v>105</v>
       </c>
-      <c r="E45" t="s">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>107</v>
-      </c>
       <c r="B46" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C46" t="s">
         <v>288</v>
       </c>
       <c r="D46" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" t="s">
         <v>108</v>
       </c>
-      <c r="E46" t="s">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>110</v>
-      </c>
       <c r="B47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C47" t="s">
         <v>289</v>
       </c>
       <c r="D47" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" t="s">
         <v>111</v>
       </c>
-      <c r="E47" t="s">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>113</v>
-      </c>
       <c r="B48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C48" t="s">
         <v>290</v>
       </c>
       <c r="D48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>115</v>
-      </c>
       <c r="B49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C49" t="s">
         <v>265</v>
       </c>
       <c r="D49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" t="s">
         <v>23</v>
       </c>
-      <c r="E49" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C50" t="s">
         <v>265</v>
       </c>
       <c r="D50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" t="s">
         <v>23</v>
       </c>
-      <c r="E50" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C51" t="s">
         <v>277</v>
       </c>
       <c r="D51" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" t="s">
         <v>69</v>
       </c>
-      <c r="E51" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C52" t="s">
         <v>291</v>
       </c>
       <c r="D52" t="s">
+        <v>118</v>
+      </c>
+      <c r="E52" t="s">
         <v>119</v>
       </c>
-      <c r="E52" t="s">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>121</v>
-      </c>
       <c r="B53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C53" t="s">
         <v>292</v>
       </c>
       <c r="D53" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" t="s">
         <v>122</v>
       </c>
-      <c r="E53" t="s">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>124</v>
-      </c>
       <c r="B54" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C54" t="s">
         <v>292</v>
       </c>
       <c r="D54" t="s">
+        <v>121</v>
+      </c>
+      <c r="E54" t="s">
         <v>122</v>
       </c>
-      <c r="E54" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B55" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C55" t="s">
         <v>266</v>
       </c>
       <c r="D55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" t="s">
         <v>26</v>
       </c>
-      <c r="E55" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B56" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C56" t="s">
         <v>266</v>
       </c>
       <c r="D56" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" t="s">
         <v>26</v>
       </c>
-      <c r="E56" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B57" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C57" t="s">
         <v>293</v>
       </c>
       <c r="D57" t="s">
+        <v>127</v>
+      </c>
+      <c r="E57" t="s">
         <v>128</v>
       </c>
-      <c r="E57" t="s">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>130</v>
-      </c>
       <c r="B58" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C58" t="s">
         <v>265</v>
       </c>
       <c r="D58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" t="s">
         <v>23</v>
       </c>
-      <c r="E58" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C59" t="s">
         <v>284</v>
       </c>
       <c r="D59" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" t="s">
         <v>96</v>
       </c>
-      <c r="E59" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B60" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C60" t="s">
         <v>265</v>
       </c>
       <c r="D60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" t="s">
         <v>23</v>
       </c>
-      <c r="E60" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C61" t="s">
         <v>277</v>
       </c>
       <c r="D61" t="s">
+        <v>68</v>
+      </c>
+      <c r="E61" t="s">
         <v>69</v>
       </c>
-      <c r="E61" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C62" t="s">
         <v>266</v>
       </c>
       <c r="D62" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" t="s">
         <v>26</v>
       </c>
-      <c r="E62" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B63" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C63" t="s">
         <v>267</v>
       </c>
       <c r="D63" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" t="s">
         <v>29</v>
       </c>
-      <c r="E63" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C64" t="s">
         <v>266</v>
       </c>
       <c r="D64" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" t="s">
         <v>26</v>
       </c>
-      <c r="E64" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B65" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C65" t="s">
         <v>267</v>
       </c>
       <c r="D65" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" t="s">
         <v>29</v>
       </c>
-      <c r="E65" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C66" t="s">
         <v>267</v>
       </c>
       <c r="D66" t="s">
+        <v>28</v>
+      </c>
+      <c r="E66" t="s">
         <v>29</v>
       </c>
-      <c r="E66" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B67" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C67" t="s">
         <v>266</v>
       </c>
       <c r="D67" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" t="s">
         <v>26</v>
       </c>
-      <c r="E67" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B68" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C68" t="s">
         <v>267</v>
       </c>
       <c r="D68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" t="s">
         <v>29</v>
       </c>
-      <c r="E68" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C69" t="s">
         <v>276</v>
       </c>
       <c r="D69" t="s">
+        <v>62</v>
+      </c>
+      <c r="E69" t="s">
         <v>63</v>
       </c>
-      <c r="E69" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B70" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C70" t="s">
         <v>276</v>
       </c>
       <c r="D70" t="s">
+        <v>62</v>
+      </c>
+      <c r="E70" t="s">
         <v>63</v>
       </c>
-      <c r="E70" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B71" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C71" t="s">
         <v>276</v>
       </c>
       <c r="D71" t="s">
+        <v>62</v>
+      </c>
+      <c r="E71" t="s">
         <v>63</v>
       </c>
-      <c r="E71" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B72" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C72" t="s">
         <v>276</v>
       </c>
       <c r="D72" t="s">
+        <v>62</v>
+      </c>
+      <c r="E72" t="s">
         <v>63</v>
       </c>
-      <c r="E72" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B73" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C73" t="s">
         <v>276</v>
       </c>
       <c r="D73" t="s">
+        <v>62</v>
+      </c>
+      <c r="E73" t="s">
         <v>63</v>
       </c>
-      <c r="E73" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B74" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C74" t="s">
         <v>276</v>
       </c>
       <c r="D74" t="s">
+        <v>62</v>
+      </c>
+      <c r="E74" t="s">
         <v>63</v>
       </c>
-      <c r="E74" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B75" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C75" t="s">
         <v>294</v>
       </c>
       <c r="D75" t="s">
+        <v>147</v>
+      </c>
+      <c r="E75" t="s">
         <v>148</v>
       </c>
-      <c r="E75" t="s">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>150</v>
-      </c>
       <c r="B76" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C76" t="s">
         <v>295</v>
       </c>
       <c r="D76" t="s">
+        <v>150</v>
+      </c>
+      <c r="E76" t="s">
         <v>151</v>
       </c>
-      <c r="E76" t="s">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>153</v>
-      </c>
       <c r="B77" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C77" t="s">
         <v>278</v>
       </c>
       <c r="D77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E77" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B78" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C78" t="s">
         <v>279</v>
       </c>
       <c r="D78" t="s">
+        <v>154</v>
+      </c>
+      <c r="E78" t="s">
         <v>155</v>
       </c>
-      <c r="E78" t="s">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>157</v>
-      </c>
       <c r="B79" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C79" t="s">
         <v>296</v>
       </c>
       <c r="D79" t="s">
+        <v>157</v>
+      </c>
+      <c r="E79" t="s">
         <v>158</v>
       </c>
-      <c r="E79" t="s">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>160</v>
-      </c>
       <c r="B80" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C80" t="s">
         <v>297</v>
       </c>
       <c r="D80" t="s">
+        <v>160</v>
+      </c>
+      <c r="E80" t="s">
         <v>161</v>
       </c>
-      <c r="E80" t="s">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>163</v>
-      </c>
       <c r="B81" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C81" t="s">
         <v>298</v>
       </c>
       <c r="D81" t="s">
+        <v>163</v>
+      </c>
+      <c r="E81" t="s">
         <v>164</v>
       </c>
-      <c r="E81" t="s">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>166</v>
-      </c>
       <c r="B82" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C82" t="s">
         <v>298</v>
       </c>
       <c r="D82" t="s">
+        <v>163</v>
+      </c>
+      <c r="E82" t="s">
         <v>164</v>
       </c>
-      <c r="E82" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B83" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C83" t="s">
         <v>298</v>
       </c>
       <c r="D83" t="s">
+        <v>163</v>
+      </c>
+      <c r="E83" t="s">
         <v>164</v>
       </c>
-      <c r="E83" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B84" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C84" t="s">
         <v>298</v>
       </c>
       <c r="D84" t="s">
+        <v>163</v>
+      </c>
+      <c r="E84" t="s">
         <v>164</v>
       </c>
-      <c r="E84" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B85" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C85" t="s">
         <v>299</v>
       </c>
       <c r="D85" t="s">
+        <v>169</v>
+      </c>
+      <c r="E85" t="s">
         <v>170</v>
       </c>
-      <c r="E85" t="s">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>172</v>
-      </c>
       <c r="B86" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C86" t="s">
         <v>299</v>
       </c>
       <c r="D86" t="s">
+        <v>169</v>
+      </c>
+      <c r="E86" t="s">
         <v>170</v>
       </c>
-      <c r="E86" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B87" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C87" t="s">
         <v>299</v>
       </c>
       <c r="D87" t="s">
+        <v>169</v>
+      </c>
+      <c r="E87" t="s">
         <v>170</v>
       </c>
-      <c r="E87" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B88" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C88" t="s">
         <v>299</v>
       </c>
       <c r="D88" t="s">
+        <v>169</v>
+      </c>
+      <c r="E88" t="s">
         <v>170</v>
       </c>
-      <c r="E88" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B89" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C89" t="s">
         <v>299</v>
       </c>
       <c r="D89" t="s">
+        <v>169</v>
+      </c>
+      <c r="E89" t="s">
         <v>170</v>
       </c>
-      <c r="E89" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B90" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C90" t="s">
         <v>299</v>
       </c>
       <c r="D90" t="s">
+        <v>169</v>
+      </c>
+      <c r="E90" t="s">
         <v>170</v>
       </c>
-      <c r="E90" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B91" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C91" t="s">
         <v>299</v>
       </c>
       <c r="D91" t="s">
+        <v>169</v>
+      </c>
+      <c r="E91" t="s">
         <v>170</v>
       </c>
-      <c r="E91" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B92" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C92" t="s">
         <v>299</v>
       </c>
       <c r="D92" t="s">
+        <v>169</v>
+      </c>
+      <c r="E92" t="s">
         <v>170</v>
       </c>
-      <c r="E92" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B93" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C93" t="s">
         <v>300</v>
       </c>
       <c r="D93" t="s">
+        <v>179</v>
+      </c>
+      <c r="E93" t="s">
         <v>180</v>
       </c>
-      <c r="E93" t="s">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>182</v>
-      </c>
       <c r="B94" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C94" t="s">
         <v>276</v>
       </c>
       <c r="D94" t="s">
+        <v>62</v>
+      </c>
+      <c r="E94" t="s">
         <v>63</v>
       </c>
-      <c r="E94" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B95" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C95" t="s">
         <v>298</v>
       </c>
       <c r="D95" t="s">
+        <v>163</v>
+      </c>
+      <c r="E95" t="s">
         <v>164</v>
       </c>
-      <c r="E95" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B96" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C96" t="s">
         <v>301</v>
       </c>
       <c r="D96" t="s">
+        <v>184</v>
+      </c>
+      <c r="E96" t="s">
         <v>185</v>
       </c>
-      <c r="E96" t="s">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>187</v>
-      </c>
       <c r="B97" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C97" t="s">
         <v>302</v>
       </c>
       <c r="D97" t="s">
+        <v>187</v>
+      </c>
+      <c r="E97" t="s">
         <v>188</v>
       </c>
-      <c r="E97" t="s">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>190</v>
-      </c>
       <c r="B98" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C98" t="s">
         <v>302</v>
       </c>
       <c r="D98" t="s">
+        <v>187</v>
+      </c>
+      <c r="E98" t="s">
         <v>188</v>
       </c>
-      <c r="E98" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B99" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C99" t="s">
         <v>303</v>
       </c>
       <c r="D99" t="s">
+        <v>191</v>
+      </c>
+      <c r="E99" t="s">
         <v>192</v>
       </c>
-      <c r="E99" t="s">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>194</v>
-      </c>
       <c r="B100" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C100" t="s">
         <v>303</v>
       </c>
       <c r="D100" t="s">
+        <v>191</v>
+      </c>
+      <c r="E100" t="s">
         <v>192</v>
       </c>
-      <c r="E100" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B101" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C101" t="s">
         <v>301</v>
       </c>
       <c r="D101" t="s">
+        <v>184</v>
+      </c>
+      <c r="E101" t="s">
         <v>185</v>
       </c>
-      <c r="E101" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C102" t="s">
         <v>304</v>
       </c>
       <c r="D102" t="s">
+        <v>196</v>
+      </c>
+      <c r="E102" t="s">
         <v>197</v>
       </c>
-      <c r="E102" t="s">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>199</v>
-      </c>
       <c r="B103" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C103" t="s">
         <v>305</v>
       </c>
       <c r="D103" t="s">
+        <v>199</v>
+      </c>
+      <c r="E103" t="s">
         <v>200</v>
       </c>
-      <c r="E103" t="s">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>202</v>
-      </c>
       <c r="B104" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C104" t="s">
         <v>279</v>
       </c>
       <c r="D104" t="s">
+        <v>154</v>
+      </c>
+      <c r="E104" t="s">
         <v>155</v>
       </c>
-      <c r="E104" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B105" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C105" t="s">
         <v>277</v>
       </c>
       <c r="D105" t="s">
+        <v>68</v>
+      </c>
+      <c r="E105" t="s">
         <v>69</v>
       </c>
-      <c r="E105" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B106" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C106" t="s">
         <v>277</v>
       </c>
       <c r="D106" t="s">
+        <v>68</v>
+      </c>
+      <c r="E106" t="s">
         <v>69</v>
       </c>
-      <c r="E106" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B107" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C107" t="s">
         <v>293</v>
       </c>
       <c r="D107" t="s">
+        <v>127</v>
+      </c>
+      <c r="E107" t="s">
         <v>128</v>
       </c>
-      <c r="E107" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B108" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C108" t="s">
         <v>267</v>
       </c>
       <c r="D108" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" t="s">
         <v>29</v>
       </c>
-      <c r="E108" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B109" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C109" t="s">
         <v>266</v>
       </c>
       <c r="D109" t="s">
+        <v>25</v>
+      </c>
+      <c r="E109" t="s">
         <v>26</v>
       </c>
-      <c r="E109" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B110" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C110" t="s">
         <v>276</v>
       </c>
       <c r="D110" t="s">
+        <v>62</v>
+      </c>
+      <c r="E110" t="s">
         <v>63</v>
       </c>
-      <c r="E110" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B111" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C111" t="s">
         <v>266</v>
       </c>
       <c r="D111" t="s">
+        <v>25</v>
+      </c>
+      <c r="E111" t="s">
         <v>26</v>
       </c>
-      <c r="E111" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B112" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C112" t="s">
         <v>266</v>
       </c>
       <c r="D112" t="s">
+        <v>25</v>
+      </c>
+      <c r="E112" t="s">
         <v>26</v>
       </c>
-      <c r="E112" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B113" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C113" t="s">
         <v>276</v>
       </c>
       <c r="D113" t="s">
+        <v>62</v>
+      </c>
+      <c r="E113" t="s">
         <v>63</v>
       </c>
-      <c r="E113" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B114" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C114" t="s">
         <v>276</v>
       </c>
       <c r="D114" t="s">
+        <v>62</v>
+      </c>
+      <c r="E114" t="s">
         <v>63</v>
       </c>
-      <c r="E114" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B115" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C115" t="s">
         <v>306</v>
       </c>
       <c r="D115" t="s">
+        <v>213</v>
+      </c>
+      <c r="E115" t="s">
         <v>214</v>
       </c>
-      <c r="E115" t="s">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>216</v>
-      </c>
       <c r="B116" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C116" t="s">
         <v>280</v>
       </c>
       <c r="D116" t="s">
+        <v>216</v>
+      </c>
+      <c r="E116" t="s">
         <v>217</v>
       </c>
-      <c r="E116" t="s">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>219</v>
-      </c>
       <c r="B117" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C117" t="s">
         <v>280</v>
       </c>
       <c r="D117" t="s">
+        <v>216</v>
+      </c>
+      <c r="E117" t="s">
         <v>217</v>
       </c>
-      <c r="E117" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B118" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C118" t="s">
         <v>272</v>
       </c>
       <c r="D118" t="s">
+        <v>49</v>
+      </c>
+      <c r="E118" t="s">
         <v>50</v>
       </c>
-      <c r="E118" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B119" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C119" t="s">
         <v>272</v>
       </c>
       <c r="D119" t="s">
+        <v>49</v>
+      </c>
+      <c r="E119" t="s">
         <v>50</v>
       </c>
-      <c r="E119" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B120" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C120" t="s">
         <v>266</v>
       </c>
       <c r="D120" t="s">
+        <v>25</v>
+      </c>
+      <c r="E120" t="s">
         <v>26</v>
       </c>
-      <c r="E120" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B121" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C121" t="s">
         <v>272</v>
       </c>
       <c r="D121" t="s">
+        <v>49</v>
+      </c>
+      <c r="E121" t="s">
         <v>50</v>
       </c>
-      <c r="E121" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B122" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C122" t="s">
         <v>272</v>
       </c>
       <c r="D122" t="s">
+        <v>49</v>
+      </c>
+      <c r="E122" t="s">
         <v>50</v>
       </c>
-      <c r="E122" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B123" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C123" t="s">
         <v>272</v>
       </c>
       <c r="D123" t="s">
+        <v>49</v>
+      </c>
+      <c r="E123" t="s">
         <v>50</v>
       </c>
-      <c r="E123" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B124" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C124" t="s">
         <v>307</v>
       </c>
       <c r="D124" t="s">
+        <v>226</v>
+      </c>
+      <c r="E124" t="s">
         <v>227</v>
       </c>
-      <c r="E124" t="s">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>229</v>
-      </c>
       <c r="B125" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C125" t="s">
         <v>308</v>
       </c>
       <c r="D125" t="s">
+        <v>229</v>
+      </c>
+      <c r="E125" t="s">
         <v>230</v>
       </c>
-      <c r="E125" t="s">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>232</v>
-      </c>
       <c r="B126" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C126" t="s">
         <v>309</v>
       </c>
       <c r="D126" t="s">
+        <v>232</v>
+      </c>
+      <c r="E126" t="s">
         <v>233</v>
       </c>
-      <c r="E126" t="s">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>235</v>
-      </c>
       <c r="B127" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C127" t="s">
         <v>310</v>
       </c>
       <c r="D127" t="s">
+        <v>235</v>
+      </c>
+      <c r="E127" t="s">
         <v>236</v>
       </c>
-      <c r="E127" t="s">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>238</v>
-      </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>260</v>
       </c>
       <c r="C128" t="s">
         <v>311</v>
       </c>
       <c r="D128" t="s">
+        <v>238</v>
+      </c>
+      <c r="E128" t="s">
         <v>239</v>
       </c>
-      <c r="E128" t="s">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>241</v>
-      </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>260</v>
       </c>
       <c r="C129" t="s">
         <v>311</v>
       </c>
       <c r="D129" t="s">
+        <v>238</v>
+      </c>
+      <c r="E129" t="s">
         <v>239</v>
       </c>
-      <c r="E129" t="s">
-        <v>240</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H129" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:H2" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Game/Floor.xlsx
+++ b/data/Game/Floor.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.222 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
